--- a/xlsx/晚餐_intext.xlsx
+++ b/xlsx/晚餐_intext.xlsx
@@ -29,7 +29,7 @@
     <t>餐</t>
   </si>
   <si>
-    <t>政策_政策_美國_晚餐</t>
+    <t>政策_政策_美国_晚餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E9%A4%90</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>宴會</t>
+    <t>宴会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boodle_fight</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>進食</t>
+    <t>进食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E6%A1%8C%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>餐桌禮儀</t>
+    <t>餐桌礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%98%8F</t>
   </si>
   <si>
-    <t>黃昏</t>
+    <t>黄昏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>親人</t>
+    <t>亲人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E6%9C%83</t>
   </si>
   <si>
-    <t>聚會</t>
+    <t>聚会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>活動</t>
+    <t>活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9D%A1%E8%A7%89</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%A8%80</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E7%9A%84%E6%99%9A%E9%A4%90</t>
   </si>
   <si>
-    <t>最後的晚餐</t>
+    <t>最后的晚餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%8B%BC%E9%9F%B3</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
 </sst>
 </file>
